--- a/2274801040879_DinhDieuHuong8/Data/ds_nhanvien.xlsx
+++ b/2274801040879_DinhDieuHuong8/Data/ds_nhanvien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ASP.NET\2274801040879_DinhDieuHuong8\2274801040879_DinhDieuHuong8\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DC07CA-AD90-401F-B30A-2A5390743D7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B083EBF6-CE31-40C4-A9B9-D3A2F21AEB2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{C772F4A0-4881-4C06-AC7F-64459609CFCC}"/>
   </bookViews>
@@ -36,18 +36,18 @@
     <t>tt</t>
   </si>
   <si>
+    <t>hodem</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
     <t>cccd</t>
   </si>
   <si>
-    <t>hodem</t>
-  </si>
-  <si>
-    <t>ten</t>
-  </si>
-  <si>
-    <t>nickname</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -69,12 +69,12 @@
     <t>hun@gmail.com</t>
   </si>
   <si>
+    <t>34456</t>
+  </si>
+  <si>
     <t>Ke toan</t>
   </si>
   <si>
-    <t>0294724</t>
-  </si>
-  <si>
     <t>Đinh</t>
   </si>
   <si>
@@ -93,27 +93,6 @@
     <t>ki su</t>
   </si>
   <si>
-    <t>03376584</t>
-  </si>
-  <si>
-    <t>Khanh</t>
-  </si>
-  <si>
-    <t>Trang</t>
-  </si>
-  <si>
-    <t>trun</t>
-  </si>
-  <si>
-    <t>trun@gmail.com</t>
-  </si>
-  <si>
-    <t>0935624619</t>
-  </si>
-  <si>
-    <t>0381014</t>
-  </si>
-  <si>
     <t>Tran</t>
   </si>
   <si>
@@ -123,13 +102,34 @@
     <t>GD</t>
   </si>
   <si>
+    <t>255</t>
+  </si>
+  <si>
     <t>Gd@gmailcom</t>
   </si>
   <si>
-    <t>0420642661</t>
+    <t>04206</t>
   </si>
   <si>
     <t>Giam Doc</t>
+  </si>
+  <si>
+    <t>Pham</t>
+  </si>
+  <si>
+    <t>Huy</t>
+  </si>
+  <si>
+    <t>moon</t>
+  </si>
+  <si>
+    <t>moon23@gmail.com</t>
+  </si>
+  <si>
+    <t>0384174</t>
+  </si>
+  <si>
+    <t>quan li</t>
   </si>
 </sst>
 </file>
@@ -496,10 +496,13 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
@@ -531,26 +534,26 @@
       <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="0">
         <v>1234</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="0">
-        <v>1234456</v>
+      <c r="G2" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -558,16 +561,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="0" t="s">
         <v>16</v>
+      </c>
+      <c r="E3" s="0">
+        <v>3502</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>17</v>
@@ -581,7 +584,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>20</v>
@@ -602,24 +605,24 @@
         <v>25</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="0" t="s">
         <v>29</v>
+      </c>
+      <c r="E5" s="0">
+        <v>98534</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>30</v>
